--- a/inst/extdata/day28_dict_tanzania.xlsx
+++ b/inst/extdata/day28_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>old</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>location_death_day28</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -737,21 +743,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -779,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -821,7 +827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -835,7 +841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -849,7 +855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -863,7 +869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
@@ -877,7 +883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -891,7 +897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -905,7 +911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -919,7 +925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -933,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -947,7 +953,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -961,7 +967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>102</v>
       </c>
@@ -975,7 +981,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -989,7 +995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>104</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -1309,6 +1315,20 @@
       </c>
       <c r="D40" s="11" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
